--- a/src/output/emails.xlsx
+++ b/src/output/emails.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -465,37 +465,43 @@
       <c r="I2" t="str">
         <v>1980</v>
       </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
       <c r="K2" t="str">
         <v>no emails found</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alex Slocum</v>
+        <v>Daniel Armani</v>
       </c>
       <c r="B3" t="str">
-        <v>GOPX Blockchain Currency</v>
+        <v>Texas Blockchain Center LLC</v>
       </c>
       <c r="C3" t="str">
-        <v>www.gopxmegaverse.com</v>
+        <v>https://GovernPlanet.org</v>
       </c>
       <c r="D3" t="str">
-        <v>gopxmegaverse.com</v>
+        <v>GovernPlanet.org</v>
       </c>
       <c r="E3" t="str">
-        <v>Blockchain Services</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="F3" t="str">
-        <v>11-50 employees</v>
+        <v>201-500 employees</v>
       </c>
       <c r="G3" t="str">
-        <v>Miramar, Florida</v>
+        <v>Austin, Texas</v>
       </c>
       <c r="H3" t="str">
-        <v>Public Company</v>
+        <v>Privately Held</v>
       </c>
       <c r="I3" t="str">
-        <v>2020</v>
+        <v>2019</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
       </c>
       <c r="K3" t="str">
         <v>no emails found</v>
@@ -503,31 +509,34 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Daniel Armani</v>
+        <v>Mackenzie Spencer</v>
       </c>
       <c r="B4" t="str">
-        <v>Texas Blockchain Center LLC</v>
+        <v>Deify</v>
       </c>
       <c r="C4" t="str">
-        <v>https://GovernPlanet.org</v>
+        <v>Website not Found</v>
       </c>
       <c r="D4" t="str">
-        <v>GovernPlanet.org</v>
+        <v>Website not Found</v>
       </c>
       <c r="E4" t="str">
-        <v>IT Services and IT Consulting</v>
+        <v>Blockchain Services</v>
       </c>
       <c r="F4" t="str">
-        <v>201-500 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G4" t="str">
-        <v>Austin, Texas</v>
+        <v>Toronto</v>
       </c>
       <c r="H4" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I4" t="str">
-        <v>2019</v>
+        <v>When Founded not found</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
       </c>
       <c r="K4" t="str">
         <v>no emails found</v>
@@ -561,6 +570,9 @@
       <c r="I5" t="str">
         <v>2021</v>
       </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
       <c r="K5" t="str">
         <v>no emails found</v>
       </c>
@@ -593,188 +605,206 @@
       <c r="I6" t="str">
         <v>When Founded not found</v>
       </c>
+      <c r="J6" t="str">
+        <v>jonwoodard@wolframblockchainlabs.com, jon.woodard@wolframblockchainlabs.com, jon@wolframblockchainlabs.com, j.woodard@wolframblockchainlabs.com, jwoodard@wolframblockchainlabs.com, woodardjon@wolframblockchainlabs.com, woodard.jon@wolframblockchainlabs.com, woodard@wolframblockchainlabs.com, w.jon@wolframblockchainlabs.com, wjon@wolframblockchainlabs.com, wj@wolframblockchainlabs.com, w.j@wolframblockchainlabs.com, jw@wolframblockchainlabs.com, j.w@wolframblockchainlabs.com</v>
+      </c>
       <c r="K6" t="str">
         <v>catchall</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mackenzie Spencer</v>
+        <v>Kyle Doran ️</v>
       </c>
       <c r="B7" t="str">
-        <v>Deify</v>
+        <v>The Net VR</v>
       </c>
       <c r="C7" t="str">
-        <v>Website not Found</v>
+        <v>https://www.thenetvr.com/</v>
       </c>
       <c r="D7" t="str">
-        <v>Website not Found</v>
+        <v>thenetvr.com</v>
       </c>
       <c r="E7" t="str">
-        <v>Blockchain Services</v>
+        <v>Software Development</v>
       </c>
       <c r="F7" t="str">
-        <v>11-50 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G7" t="str">
-        <v>Toronto</v>
+        <v>Austin, Texas</v>
       </c>
       <c r="H7" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I7" t="str">
-        <v>When Founded not found</v>
+        <v>2019</v>
+      </c>
+      <c r="J7" t="str">
+        <v>kyle@thenetvr.com</v>
       </c>
       <c r="K7" t="str">
-        <v>no emails found</v>
+        <v>valid</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Kyle Doran ️</v>
+        <v>Jonathan Capriola</v>
       </c>
       <c r="B8" t="str">
-        <v>The Net VR</v>
+        <v>AI Blockchain Ventures</v>
       </c>
       <c r="C8" t="str">
-        <v>https://www.thenetvr.com/</v>
+        <v>https://www.aiblockchainventures.com/</v>
       </c>
       <c r="D8" t="str">
-        <v>thenetvr.com</v>
+        <v>aiblockchainventures.com</v>
       </c>
       <c r="E8" t="str">
         <v>Software Development</v>
       </c>
       <c r="F8" t="str">
-        <v>2-10 employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="G8" t="str">
-        <v>Austin, Texas</v>
+        <v>Sarasota , Florida</v>
       </c>
       <c r="H8" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I8" t="str">
-        <v>2019</v>
+        <v>2022</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v>valid</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Jonathan Capriola</v>
+        <v>LaMont Jeppesen Leavitt</v>
       </c>
       <c r="B9" t="str">
-        <v>AI Blockchain Ventures</v>
+        <v>innoviHealth</v>
       </c>
       <c r="C9" t="str">
-        <v>https://www.aiblockchainventures.com/</v>
+        <v>https://www.innovihealth.com/</v>
       </c>
       <c r="D9" t="str">
-        <v>aiblockchainventures.com</v>
+        <v>innovihealth.com</v>
       </c>
       <c r="E9" t="str">
-        <v>Software Development</v>
+        <v>Hospitals and Health Care</v>
       </c>
       <c r="F9" t="str">
-        <v>51-200 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G9" t="str">
-        <v>Sarasota , Florida</v>
+        <v>Spanish Fork, UT</v>
       </c>
       <c r="H9" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I9" t="str">
-        <v>2022</v>
+        <v>1997</v>
+      </c>
+      <c r="J9" t="str">
+        <v>lamont.leavitt@innovihealth.com</v>
       </c>
       <c r="K9" t="str">
-        <v>no emails found</v>
+        <v>valid</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>LaMont Jeppesen Leavitt</v>
+        <v>Pradeep Aswal</v>
       </c>
       <c r="B10" t="str">
-        <v>innoviHealth</v>
+        <v>Blockchain Council</v>
       </c>
       <c r="C10" t="str">
-        <v>https://www.innovihealth.com/</v>
+        <v>https://www.blockchain-council.org</v>
       </c>
       <c r="D10" t="str">
-        <v>innovihealth.com</v>
+        <v>blockchain-council.org</v>
       </c>
       <c r="E10" t="str">
-        <v>Hospitals and Health Care</v>
+        <v>E-Learning Providers</v>
       </c>
       <c r="F10" t="str">
-        <v>11-50 employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="G10" t="str">
-        <v>Spanish Fork, UT</v>
+        <v>Covina, California</v>
       </c>
       <c r="H10" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I10" t="str">
-        <v>1997</v>
+        <v>2017</v>
+      </c>
+      <c r="J10" t="str">
+        <v>pradeepaswal@blockchain-council.org, pradeep.aswal@blockchain-council.org, pradeep@blockchain-council.org, p.aswal@blockchain-council.org, paswal@blockchain-council.org, aswalpradeep@blockchain-council.org, aswal.pradeep@blockchain-council.org, aswal@blockchain-council.org, a.pradeep@blockchain-council.org, apradeep@blockchain-council.org, ap@blockchain-council.org, a.p@blockchain-council.org, pa@blockchain-council.org, p.a@blockchain-council.org</v>
       </c>
       <c r="K10" t="str">
-        <v>valid</v>
+        <v>catchall</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Pradeep Aswal</v>
+        <v>Emma Arakelyan</v>
       </c>
       <c r="B11" t="str">
-        <v>Blockchain Council</v>
+        <v>BAJ Accelerator</v>
       </c>
       <c r="C11" t="str">
-        <v>https://www.blockchain-council.org</v>
+        <v>https://www.bajaccelerator.com/</v>
       </c>
       <c r="D11" t="str">
-        <v>blockchain-council.org</v>
+        <v>bajaccelerator.com</v>
       </c>
       <c r="E11" t="str">
-        <v>E-Learning Providers</v>
+        <v>Venture Capital and Private Equity Principals</v>
       </c>
       <c r="F11" t="str">
-        <v>51-200 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G11" t="str">
-        <v>Covina, California</v>
+        <v>New York, New York</v>
       </c>
       <c r="H11" t="str">
-        <v>Privately Held</v>
+        <v>Partnership</v>
       </c>
       <c r="I11" t="str">
-        <v>2017</v>
+        <v>2020</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
       </c>
       <c r="K11" t="str">
-        <v>catchall</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Arnie Isaacs</v>
+        <v>Richard Bunker</v>
       </c>
       <c r="B12" t="str">
-        <v>Private Company</v>
+        <v>Inveniam</v>
       </c>
       <c r="C12" t="str">
-        <v>http://buzz2bucks.com</v>
+        <v>https://inveniam.io/</v>
       </c>
       <c r="D12" t="str">
-        <v>buzz2bucks.com</v>
+        <v>inveniam.io</v>
       </c>
       <c r="E12" t="str">
-        <v>Advertising Services</v>
+        <v>Financial Services</v>
       </c>
       <c r="F12" t="str">
-        <v>11-50 employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="G12" t="str">
         <v>New York, NY</v>
@@ -783,7 +813,10 @@
         <v>Privately Held</v>
       </c>
       <c r="I12" t="str">
-        <v>When Founded not found</v>
+        <v>2017</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
       </c>
       <c r="K12" t="str">
         <v>no emails found</v>
@@ -791,22 +824,22 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Richard Bunker</v>
+        <v>Arnie Isaacs</v>
       </c>
       <c r="B13" t="str">
-        <v>Inveniam</v>
+        <v>Private Company</v>
       </c>
       <c r="C13" t="str">
-        <v>https://inveniam.io/</v>
+        <v>http://buzz2bucks.com</v>
       </c>
       <c r="D13" t="str">
-        <v>inveniam.io</v>
+        <v>buzz2bucks.com</v>
       </c>
       <c r="E13" t="str">
-        <v>Financial Services</v>
+        <v>Advertising Services</v>
       </c>
       <c r="F13" t="str">
-        <v>51-200 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G13" t="str">
         <v>New York, NY</v>
@@ -815,7 +848,10 @@
         <v>Privately Held</v>
       </c>
       <c r="I13" t="str">
-        <v>2017</v>
+        <v>When Founded not found</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
       </c>
       <c r="K13" t="str">
         <v>no emails found</v>
@@ -823,34 +859,37 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Emma Arakelyan</v>
+        <v>Sergio Chaverri</v>
       </c>
       <c r="B14" t="str">
-        <v>BAJ Accelerator</v>
+        <v>BlockAxess</v>
       </c>
       <c r="C14" t="str">
-        <v>https://www.bajaccelerator.com/</v>
+        <v>https://www.blockaxess.io</v>
       </c>
       <c r="D14" t="str">
-        <v>bajaccelerator.com</v>
+        <v>blockaxess.io</v>
       </c>
       <c r="E14" t="str">
-        <v>Venture Capital and Private Equity Principals</v>
+        <v>Financial Services</v>
       </c>
       <c r="F14" t="str">
-        <v>11-50 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G14" t="str">
-        <v>New York, New York</v>
+        <v>Santa Fe, Cuajimalpa de Morelos, Ciudad de México</v>
       </c>
       <c r="H14" t="str">
-        <v>Partnership</v>
+        <v>Privately Held</v>
       </c>
       <c r="I14" t="str">
-        <v>2020</v>
+        <v>2022</v>
+      </c>
+      <c r="J14" t="str">
+        <v>sergio@blockaxess.io</v>
       </c>
       <c r="K14" t="str">
-        <v>no emails found</v>
+        <v>valid</v>
       </c>
     </row>
     <row r="15">
@@ -881,104 +920,116 @@
       <c r="I15" t="str">
         <v>When Founded not found</v>
       </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
       <c r="K15" t="str">
         <v>no emails found</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Sergio Chaverri</v>
+        <v>Jim Angleton</v>
       </c>
       <c r="B16" t="str">
-        <v>BlockAxess</v>
+        <v>Law Enforcement &amp; Technology Federal Credit Union</v>
       </c>
       <c r="C16" t="str">
-        <v>https://www.blockaxess.io</v>
+        <v>http://unitedpolicefcu.com</v>
       </c>
       <c r="D16" t="str">
-        <v>blockaxess.io</v>
+        <v>unitedpolicefcu.com</v>
       </c>
       <c r="E16" t="str">
         <v>Financial Services</v>
       </c>
       <c r="F16" t="str">
-        <v>2-10 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G16" t="str">
-        <v>Santa Fe, Cuajimalpa de Morelos, Ciudad de México</v>
+        <v>Miami, FL</v>
       </c>
       <c r="H16" t="str">
-        <v>Privately Held</v>
+        <v>Nonprofit</v>
       </c>
       <c r="I16" t="str">
-        <v>2022</v>
+        <v>1936</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
       </c>
       <c r="K16" t="str">
-        <v>valid</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Jim Angleton</v>
+        <v>Vladimir Lialine</v>
       </c>
       <c r="B17" t="str">
-        <v>Law Enforcement &amp; Technology Federal Credit Union</v>
+        <v>TWIXSOFT</v>
       </c>
       <c r="C17" t="str">
-        <v>http://unitedpolicefcu.com</v>
+        <v>https://Twixsoft.com</v>
       </c>
       <c r="D17" t="str">
-        <v>unitedpolicefcu.com</v>
+        <v>Twixsoft.com</v>
       </c>
       <c r="E17" t="str">
-        <v>Financial Services</v>
+        <v>Software Development</v>
       </c>
       <c r="F17" t="str">
         <v>11-50 employees</v>
       </c>
       <c r="G17" t="str">
-        <v>Miami, FL</v>
+        <v>Old Greenwich, Connecticut</v>
       </c>
       <c r="H17" t="str">
-        <v>Nonprofit</v>
+        <v>Privately Held</v>
       </c>
       <c r="I17" t="str">
-        <v>1936</v>
+        <v>2015</v>
+      </c>
+      <c r="J17" t="str">
+        <v>vladimirlialine@Twixsoft.com, vladimir.lialine@Twixsoft.com, vladimir@Twixsoft.com, v.lialine@Twixsoft.com, vlialine@Twixsoft.com, lialinevladimir@Twixsoft.com, lialine.vladimir@Twixsoft.com, lialine@Twixsoft.com, l.vladimir@Twixsoft.com, lvladimir@Twixsoft.com, lv@Twixsoft.com, l.v@Twixsoft.com, vl@Twixsoft.com, v.l@Twixsoft.com</v>
       </c>
       <c r="K17" t="str">
-        <v>no emails found</v>
+        <v>catchall</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Vladimir Lialine</v>
+        <v>Richard Groome</v>
       </c>
       <c r="B18" t="str">
-        <v>TWIXSOFT</v>
+        <v>Notre-Dame Capital Inc.</v>
       </c>
       <c r="C18" t="str">
-        <v>https://Twixsoft.com</v>
+        <v>http://www.notredamecapital.com</v>
       </c>
       <c r="D18" t="str">
-        <v>Twixsoft.com</v>
+        <v>notredamecapital.com</v>
       </c>
       <c r="E18" t="str">
-        <v>Software Development</v>
+        <v>Financial Services</v>
       </c>
       <c r="F18" t="str">
-        <v>11-50 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G18" t="str">
-        <v>Old Greenwich, Connecticut</v>
+        <v>Montreal, Quebec</v>
       </c>
       <c r="H18" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I18" t="str">
-        <v>2015</v>
+        <v>2006</v>
+      </c>
+      <c r="J18" t="str">
+        <v/>
       </c>
       <c r="K18" t="str">
-        <v>catchall</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="19">
@@ -1009,77 +1060,611 @@
       <c r="I19" t="str">
         <v>2021</v>
       </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
       <c r="K19" t="str">
         <v>no emails found</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Richard Groome</v>
+        <v>Ash Bassili</v>
       </c>
       <c r="B20" t="str">
-        <v>Notre-Dame Capital Inc.</v>
+        <v>myLaminin</v>
       </c>
       <c r="C20" t="str">
-        <v>http://www.notredamecapital.com</v>
+        <v>http://www.mylaminin.net</v>
       </c>
       <c r="D20" t="str">
-        <v>notredamecapital.com</v>
+        <v>mylaminin.net</v>
       </c>
       <c r="E20" t="str">
-        <v>Financial Services</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="F20" t="str">
         <v>2-10 employees</v>
       </c>
       <c r="G20" t="str">
-        <v>Montreal, Quebec</v>
+        <v>Kingston, Ontario</v>
       </c>
       <c r="H20" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I20" t="str">
-        <v>2006</v>
+        <v>2021</v>
+      </c>
+      <c r="J20" t="str">
+        <v>ashbassili@mylaminin.net, ash@mylaminin.net</v>
       </c>
       <c r="K20" t="str">
-        <v>no emails found</v>
+        <v>valid</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
+        <v>Gene Monaco</v>
+      </c>
+      <c r="B21" t="str">
+        <v>MediTechnix Incorporated</v>
+      </c>
+      <c r="C21" t="str">
+        <v>http://meditechnix.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>meditechnix.com</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Hospitals and Health Care</v>
+      </c>
+      <c r="F21" t="str">
+        <v>10,001+ employees</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Headquater location not found</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I21" t="str">
+        <v>2010</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
         <v>Greg McGregor</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B22" t="str">
         <v>Bright Apps LLC</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C22" t="str">
         <v>http://www.brightappsllc.com</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <v>brightappsllc.com</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E22" t="str">
         <v>Software Development</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F22" t="str">
         <v>11-50 employees</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G22" t="str">
         <v>Walnut Creek, CA</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H22" t="str">
         <v>Self-Owned</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I22" t="str">
         <v>1990</v>
       </c>
-      <c r="K21" t="str">
+      <c r="J22" t="str">
+        <v>greg@brightappsllc.com</v>
+      </c>
+      <c r="K22" t="str">
         <v>valid</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Paulo Eduardo Padula</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Plug and Play Tech Center</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://www.plugandplaytechcenter.com/</v>
+      </c>
+      <c r="D23" t="str">
+        <v>plugandplaytechcenter.com</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Venture Capital and Private Equity Principals</v>
+      </c>
+      <c r="F23" t="str">
+        <v>501-1,000 employees</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Sunnyvale, CA</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I23" t="str">
+        <v>2006</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Lothar Soliwon</v>
+      </c>
+      <c r="B24" t="str">
+        <v>ZG Worldwide Consultants (A Multi-specialty Group)</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://www.zgworldwide.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>zgworldwide.com</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Business Consulting and Services</v>
+      </c>
+      <c r="F24" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Springfield, Illinois</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I24" t="str">
+        <v>2013</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Shekhar Pawar</v>
+      </c>
+      <c r="B25" t="str">
+        <v>SecureClaw</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://secureclaw.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>secureclaw.com</v>
+      </c>
+      <c r="E25" t="str">
+        <v>IT Services and IT Consulting</v>
+      </c>
+      <c r="F25" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Dover, Deleware</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I25" t="str">
+        <v>2022</v>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Christian Moreno</v>
+      </c>
+      <c r="B26" t="str">
+        <v>GoKapital</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://www.GoKapital.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>GoKapital.com</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F26" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Miami, Florida</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I26" t="str">
+        <v>2013</v>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Andres Diaz Martinez</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Plug and Play Tech Center</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://www.plugandplaytechcenter.com/</v>
+      </c>
+      <c r="D27" t="str">
+        <v>plugandplaytechcenter.com</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Venture Capital and Private Equity Principals</v>
+      </c>
+      <c r="F27" t="str">
+        <v>501-1,000 employees</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Sunnyvale, CA</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I27" t="str">
+        <v>2006</v>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Nasir T.</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Upwork</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://www.upwork.com/</v>
+      </c>
+      <c r="D28" t="str">
+        <v>upwork.com</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Technology, Information and Internet</v>
+      </c>
+      <c r="F28" t="str">
+        <v>501-1,000 employees</v>
+      </c>
+      <c r="G28" t="str">
+        <v>San Francisco, California</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Public Company</v>
+      </c>
+      <c r="I28" t="str">
+        <v>2015</v>
+      </c>
+      <c r="J28" t="str">
+        <v>nasirt.@upwork.com, nasir.t.@upwork.com, nasir@upwork.com, n.t.@upwork.com, nt.@upwork.com, t.nasir@upwork.com, t.@upwork.com, tnasir@upwork.com, tn@upwork.com, t.n@upwork.com, nt@upwork.com, n.t@upwork.com</v>
+      </c>
+      <c r="K28" t="str">
+        <v>catchall</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Nic Solecki</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Marquette Associates</v>
+      </c>
+      <c r="C29" t="str">
+        <v>http://www.marquetteassociates.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>marquetteassociates.com</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F29" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Chicago, IL</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I29" t="str">
+        <v>1986</v>
+      </c>
+      <c r="J29" t="str">
+        <v>nsolecki@marquetteassociates.com</v>
+      </c>
+      <c r="K29" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Linda Goetze</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Blockchain Chamber of Commerce</v>
+      </c>
+      <c r="C30" t="str">
+        <v>http://www.blockchainchamber.org</v>
+      </c>
+      <c r="D30" t="str">
+        <v>blockchainchamber.org</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Information Technology &amp; Services</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Atlanta, GA</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Nonprofit</v>
+      </c>
+      <c r="I30" t="str">
+        <v>2017</v>
+      </c>
+      <c r="J30" t="str">
+        <v>linda.goetze@blockchainchamber.org, linda@blockchainchamber.org</v>
+      </c>
+      <c r="K30" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Issa jérémy Victor</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Camelcoin Project</v>
+      </c>
+      <c r="C31" t="str">
+        <v>http://www.camelcoin.io</v>
+      </c>
+      <c r="D31" t="str">
+        <v>camelcoin.io</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F31" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G31" t="str">
+        <v>San Jose, Carmen district</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Nonprofit</v>
+      </c>
+      <c r="I31" t="str">
+        <v>2020</v>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Amir Tabei</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Dallas Museum of Art</v>
+      </c>
+      <c r="C32" t="str">
+        <v>http://www.DMA.org</v>
+      </c>
+      <c r="D32" t="str">
+        <v>DMA.org</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Museums, Historical Sites, and Zoos</v>
+      </c>
+      <c r="F32" t="str">
+        <v>201-500 employees</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Dallas, TX</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Nonprofit</v>
+      </c>
+      <c r="I32" t="str">
+        <v>1903</v>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Karlo Turk</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Credit Metaverse</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://creditmetaverse.io/</v>
+      </c>
+      <c r="D33" t="str">
+        <v>creditmetaverse.io</v>
+      </c>
+      <c r="E33" t="str">
+        <v>الخدمات المالية</v>
+      </c>
+      <c r="F33" t="str">
+        <v>١١- ٥٠ موظف</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Dubai</v>
+      </c>
+      <c r="H33" t="str">
+        <v>شركة يملكها عدد قليل من الأشخاص</v>
+      </c>
+      <c r="I33" t="str">
+        <v>2021</v>
+      </c>
+      <c r="J33" t="str">
+        <v>karlo@creditmetaverse.io</v>
+      </c>
+      <c r="K33" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>David Lucatch</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Liquid Avatar Technologies</v>
+      </c>
+      <c r="C34" t="str">
+        <v>http://www.liquidavatartechnologies.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v>liquidavatartechnologies.com</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Burnaby, British Columbia</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Partnership</v>
+      </c>
+      <c r="I34" t="str">
+        <v>2017</v>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Dan Hannigan Daley</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Sports Info Solutions</v>
+      </c>
+      <c r="C35" t="str">
+        <v>http://sportsinfosolutions.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v>sportsinfosolutions.com</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Spectator Sports</v>
+      </c>
+      <c r="F35" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Coplay, PA</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I35" t="str">
+        <v>2002</v>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Lee Richter</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Event Planners Association</v>
+      </c>
+      <c r="C36" t="str">
+        <v>http://eventplannersassociation.com/</v>
+      </c>
+      <c r="D36" t="str">
+        <v>eventplannersassociation.com</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Events Services</v>
+      </c>
+      <c r="F36" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Oakland, California</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Public Company</v>
+      </c>
+      <c r="I36" t="str">
+        <v>2005</v>
+      </c>
+      <c r="J36" t="str">
+        <v>leerichter@eventplannersassociation.com, lee.richter@eventplannersassociation.com, lee@eventplannersassociation.com, l.richter@eventplannersassociation.com, lrichter@eventplannersassociation.com, richterlee@eventplannersassociation.com, richter.lee@eventplannersassociation.com, richter@eventplannersassociation.com, r.lee@eventplannersassociation.com, rlee@eventplannersassociation.com, rl@eventplannersassociation.com, r.l@eventplannersassociation.com, lr@eventplannersassociation.com, l.r@eventplannersassociation.com</v>
+      </c>
+      <c r="K36" t="str">
+        <v>catchall</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/output/emails.xlsx
+++ b/src/output/emails.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -509,66 +509,66 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Mackenzie Spencer</v>
+        <v>Gordon Jones</v>
       </c>
       <c r="B4" t="str">
-        <v>Deify</v>
+        <v>Picklezone</v>
       </c>
       <c r="C4" t="str">
-        <v>Website not Found</v>
+        <v>https://picklezone.com/</v>
       </c>
       <c r="D4" t="str">
-        <v>Website not Found</v>
+        <v>picklezone.com</v>
       </c>
       <c r="E4" t="str">
-        <v>Blockchain Services</v>
+        <v>Technology, Information and Internet</v>
       </c>
       <c r="F4" t="str">
-        <v>11-50 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G4" t="str">
-        <v>Toronto</v>
+        <v>Orlando, Florida</v>
       </c>
       <c r="H4" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I4" t="str">
-        <v>When Founded not found</v>
+        <v>2022</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>gordon@picklezone.com</v>
       </c>
       <c r="K4" t="str">
-        <v>no emails found</v>
+        <v>valid</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Matt Waters</v>
+        <v>Alex Slocum</v>
       </c>
       <c r="B5" t="str">
-        <v>Unchained Music</v>
+        <v>GOPX Blockchain Currency</v>
       </c>
       <c r="C5" t="str">
-        <v>https://www.unchainedmusic.io</v>
+        <v>www.gopxmegaverse.com</v>
       </c>
       <c r="D5" t="str">
-        <v>unchainedmusic.io</v>
+        <v>gopxmegaverse.com</v>
       </c>
       <c r="E5" t="str">
-        <v>Musicians</v>
+        <v>Blockchain Services</v>
       </c>
       <c r="F5" t="str">
-        <v>2-10 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G5" t="str">
-        <v>Denver, CO</v>
+        <v>Miramar, Florida</v>
       </c>
       <c r="H5" t="str">
-        <v>Privately Held</v>
+        <v>Public Company</v>
       </c>
       <c r="I5" t="str">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J5" t="str">
         <v/>
@@ -579,101 +579,101 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Jon Woodard</v>
+        <v>Frank Yglesias</v>
       </c>
       <c r="B6" t="str">
-        <v>Wolfram Blockchain Labs</v>
+        <v>Santo Mining Corp. a.k.a HighBloc</v>
       </c>
       <c r="C6" t="str">
-        <v>https://www.wolframblockchainlabs.com/</v>
+        <v>https://santoblockchain.com/</v>
       </c>
       <c r="D6" t="str">
-        <v>wolframblockchainlabs.com</v>
+        <v>santoblockchain.com</v>
       </c>
       <c r="E6" t="str">
-        <v>Software Development</v>
+        <v>IT Services and IT Consulting</v>
       </c>
       <c r="F6" t="str">
         <v>11-50 employees</v>
       </c>
       <c r="G6" t="str">
-        <v>Champaign, IL</v>
+        <v>Aventura, Florida</v>
       </c>
       <c r="H6" t="str">
-        <v>Privately Held</v>
+        <v>Public Company</v>
       </c>
       <c r="I6" t="str">
-        <v>When Founded not found</v>
+        <v>2005</v>
       </c>
       <c r="J6" t="str">
-        <v>jonwoodard@wolframblockchainlabs.com, jon.woodard@wolframblockchainlabs.com, jon@wolframblockchainlabs.com, j.woodard@wolframblockchainlabs.com, jwoodard@wolframblockchainlabs.com, woodardjon@wolframblockchainlabs.com, woodard.jon@wolframblockchainlabs.com, woodard@wolframblockchainlabs.com, w.jon@wolframblockchainlabs.com, wjon@wolframblockchainlabs.com, wj@wolframblockchainlabs.com, w.j@wolframblockchainlabs.com, jw@wolframblockchainlabs.com, j.w@wolframblockchainlabs.com</v>
+        <v/>
       </c>
       <c r="K6" t="str">
-        <v>catchall</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Kyle Doran ️</v>
+        <v>Jeffery Potvin</v>
       </c>
       <c r="B7" t="str">
-        <v>The Net VR</v>
+        <v>Open People Network (OPN)</v>
       </c>
       <c r="C7" t="str">
-        <v>https://www.thenetvr.com/</v>
+        <v>http://www.opn.ninja</v>
       </c>
       <c r="D7" t="str">
-        <v>thenetvr.com</v>
+        <v>opn.ninja</v>
       </c>
       <c r="E7" t="str">
-        <v>Software Development</v>
+        <v>Broadcast Media Production and Distribution</v>
       </c>
       <c r="F7" t="str">
         <v>2-10 employees</v>
       </c>
       <c r="G7" t="str">
-        <v>Austin, Texas</v>
+        <v>Toronto, ontario</v>
       </c>
       <c r="H7" t="str">
-        <v>Privately Held</v>
+        <v>Public Company</v>
       </c>
       <c r="I7" t="str">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="J7" t="str">
-        <v>kyle@thenetvr.com</v>
+        <v>jefferypotvin@opn.ninja, jeffery.potvin@opn.ninja, jeffery@opn.ninja, j.potvin@opn.ninja, jpotvin@opn.ninja, potvinjeffery@opn.ninja, potvin.jeffery@opn.ninja, potvin@opn.ninja, p.jeffery@opn.ninja, pjeffery@opn.ninja, pj@opn.ninja, p.j@opn.ninja, jp@opn.ninja, j.p@opn.ninja</v>
       </c>
       <c r="K7" t="str">
-        <v>valid</v>
+        <v>catchall</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Jonathan Capriola</v>
+        <v>Mackenzie Spencer</v>
       </c>
       <c r="B8" t="str">
-        <v>AI Blockchain Ventures</v>
+        <v>Deify</v>
       </c>
       <c r="C8" t="str">
-        <v>https://www.aiblockchainventures.com/</v>
+        <v>Website not Found</v>
       </c>
       <c r="D8" t="str">
-        <v>aiblockchainventures.com</v>
+        <v>Website not Found</v>
       </c>
       <c r="E8" t="str">
-        <v>Software Development</v>
+        <v>Blockchain Services</v>
       </c>
       <c r="F8" t="str">
-        <v>51-200 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G8" t="str">
-        <v>Sarasota , Florida</v>
+        <v>Toronto</v>
       </c>
       <c r="H8" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I8" t="str">
-        <v>2022</v>
+        <v>When Founded not found</v>
       </c>
       <c r="J8" t="str">
         <v/>
@@ -684,171 +684,171 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>LaMont Jeppesen Leavitt</v>
+        <v>Pradeep Aswal</v>
       </c>
       <c r="B9" t="str">
-        <v>innoviHealth</v>
+        <v>Blockchain Council</v>
       </c>
       <c r="C9" t="str">
-        <v>https://www.innovihealth.com/</v>
+        <v>https://www.blockchain-council.org</v>
       </c>
       <c r="D9" t="str">
-        <v>innovihealth.com</v>
+        <v>blockchain-council.org</v>
       </c>
       <c r="E9" t="str">
-        <v>Hospitals and Health Care</v>
+        <v>E-Learning Providers</v>
       </c>
       <c r="F9" t="str">
-        <v>11-50 employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="G9" t="str">
-        <v>Spanish Fork, UT</v>
+        <v>Covina, California</v>
       </c>
       <c r="H9" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I9" t="str">
-        <v>1997</v>
+        <v>2017</v>
       </c>
       <c r="J9" t="str">
-        <v>lamont.leavitt@innovihealth.com</v>
+        <v>pradeepaswal@blockchain-council.org, pradeep.aswal@blockchain-council.org, pradeep@blockchain-council.org, p.aswal@blockchain-council.org, paswal@blockchain-council.org, aswalpradeep@blockchain-council.org, aswal.pradeep@blockchain-council.org, aswal@blockchain-council.org, a.pradeep@blockchain-council.org, apradeep@blockchain-council.org, ap@blockchain-council.org, a.p@blockchain-council.org, pa@blockchain-council.org, p.a@blockchain-council.org</v>
       </c>
       <c r="K9" t="str">
-        <v>valid</v>
+        <v>catchall</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Pradeep Aswal</v>
+        <v>Herman Kepani Jr</v>
       </c>
       <c r="B10" t="str">
-        <v>Blockchain Council</v>
+        <v>Allied Universal</v>
       </c>
       <c r="C10" t="str">
-        <v>https://www.blockchain-council.org</v>
+        <v>https://www.aus.com/</v>
       </c>
       <c r="D10" t="str">
-        <v>blockchain-council.org</v>
+        <v>aus.com</v>
       </c>
       <c r="E10" t="str">
-        <v>E-Learning Providers</v>
+        <v>Security and Investigations</v>
       </c>
       <c r="F10" t="str">
-        <v>51-200 employees</v>
+        <v>10,001+ employees</v>
       </c>
       <c r="G10" t="str">
-        <v>Covina, California</v>
+        <v>Irvine, CA</v>
       </c>
       <c r="H10" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I10" t="str">
-        <v>2017</v>
+        <v>When Founded not found</v>
       </c>
       <c r="J10" t="str">
-        <v>pradeepaswal@blockchain-council.org, pradeep.aswal@blockchain-council.org, pradeep@blockchain-council.org, p.aswal@blockchain-council.org, paswal@blockchain-council.org, aswalpradeep@blockchain-council.org, aswal.pradeep@blockchain-council.org, aswal@blockchain-council.org, a.pradeep@blockchain-council.org, apradeep@blockchain-council.org, ap@blockchain-council.org, a.p@blockchain-council.org, pa@blockchain-council.org, p.a@blockchain-council.org</v>
+        <v/>
       </c>
       <c r="K10" t="str">
-        <v>catchall</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Emma Arakelyan</v>
+        <v>Kyle Doran ️</v>
       </c>
       <c r="B11" t="str">
-        <v>BAJ Accelerator</v>
+        <v>The Net VR</v>
       </c>
       <c r="C11" t="str">
-        <v>https://www.bajaccelerator.com/</v>
+        <v>https://www.thenetvr.com/</v>
       </c>
       <c r="D11" t="str">
-        <v>bajaccelerator.com</v>
+        <v>thenetvr.com</v>
       </c>
       <c r="E11" t="str">
-        <v>Venture Capital and Private Equity Principals</v>
+        <v>Software Development</v>
       </c>
       <c r="F11" t="str">
-        <v>11-50 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G11" t="str">
-        <v>New York, New York</v>
+        <v>Austin, Texas</v>
       </c>
       <c r="H11" t="str">
-        <v>Partnership</v>
+        <v>Privately Held</v>
       </c>
       <c r="I11" t="str">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J11" t="str">
-        <v/>
+        <v>kyle@thenetvr.com</v>
       </c>
       <c r="K11" t="str">
-        <v>no emails found</v>
+        <v>valid</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Richard Bunker</v>
+        <v>Linda Goetze</v>
       </c>
       <c r="B12" t="str">
-        <v>Inveniam</v>
+        <v>Blockchain Chamber of Commerce</v>
       </c>
       <c r="C12" t="str">
-        <v>https://inveniam.io/</v>
+        <v>http://www.blockchainchamber.org</v>
       </c>
       <c r="D12" t="str">
-        <v>inveniam.io</v>
+        <v>blockchainchamber.org</v>
       </c>
       <c r="E12" t="str">
-        <v>Financial Services</v>
+        <v>Information Technology &amp; Services</v>
       </c>
       <c r="F12" t="str">
-        <v>51-200 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G12" t="str">
-        <v>New York, NY</v>
+        <v>Atlanta, GA</v>
       </c>
       <c r="H12" t="str">
-        <v>Privately Held</v>
+        <v>Nonprofit</v>
       </c>
       <c r="I12" t="str">
         <v>2017</v>
       </c>
       <c r="J12" t="str">
-        <v/>
+        <v>linda.goetze@blockchainchamber.org, linda@blockchainchamber.org</v>
       </c>
       <c r="K12" t="str">
-        <v>no emails found</v>
+        <v>valid</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Arnie Isaacs</v>
+        <v>Jonathan Capriola</v>
       </c>
       <c r="B13" t="str">
-        <v>Private Company</v>
+        <v>AI Blockchain Ventures</v>
       </c>
       <c r="C13" t="str">
-        <v>http://buzz2bucks.com</v>
+        <v>https://www.aiblockchainventures.com/</v>
       </c>
       <c r="D13" t="str">
-        <v>buzz2bucks.com</v>
+        <v>aiblockchainventures.com</v>
       </c>
       <c r="E13" t="str">
-        <v>Advertising Services</v>
+        <v>Software Development</v>
       </c>
       <c r="F13" t="str">
-        <v>11-50 employees</v>
+        <v>51-200 employees</v>
       </c>
       <c r="G13" t="str">
-        <v>New York, NY</v>
+        <v>Sarasota , Florida</v>
       </c>
       <c r="H13" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I13" t="str">
-        <v>When Founded not found</v>
+        <v>2022</v>
       </c>
       <c r="J13" t="str">
         <v/>
@@ -859,34 +859,34 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Sergio Chaverri</v>
+        <v>Roger Williams</v>
       </c>
       <c r="B14" t="str">
-        <v>BlockAxess</v>
+        <v>Mobile Blockchain Solutions</v>
       </c>
       <c r="C14" t="str">
-        <v>https://www.blockaxess.io</v>
+        <v>https://mobileblockchainsolutions.com/</v>
       </c>
       <c r="D14" t="str">
-        <v>blockaxess.io</v>
+        <v>mobileblockchainsolutions.com</v>
       </c>
       <c r="E14" t="str">
-        <v>Financial Services</v>
+        <v>Blockchain Services</v>
       </c>
       <c r="F14" t="str">
-        <v>2-10 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G14" t="str">
-        <v>Santa Fe, Cuajimalpa de Morelos, Ciudad de México</v>
+        <v>Houston, TX</v>
       </c>
       <c r="H14" t="str">
-        <v>Privately Held</v>
+        <v>Partnership</v>
       </c>
       <c r="I14" t="str">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="J14" t="str">
-        <v>sergio@blockaxess.io</v>
+        <v>roger@mobileblockchainsolutions.com</v>
       </c>
       <c r="K14" t="str">
         <v>valid</v>
@@ -894,31 +894,31 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Friedrich Stahl</v>
+        <v>Doug Kirkpatrick</v>
       </c>
       <c r="B15" t="str">
-        <v>HP</v>
+        <v>D'Artagnan Advisors, LLC</v>
       </c>
       <c r="C15" t="str">
-        <v>http://www.hp.com</v>
+        <v>https://dartagnanadvisors.com</v>
       </c>
       <c r="D15" t="str">
-        <v>hp.com</v>
+        <v>dartagnanadvisors.com</v>
       </c>
       <c r="E15" t="str">
-        <v>IT Services and IT Consulting</v>
+        <v>Business Consulting and Services</v>
       </c>
       <c r="F15" t="str">
-        <v>10,001+ employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G15" t="str">
-        <v>Palo Alto, CA</v>
+        <v>San Francisco Bay Area, California</v>
       </c>
       <c r="H15" t="str">
-        <v>Public Company</v>
+        <v>Privately Held</v>
       </c>
       <c r="I15" t="str">
-        <v>When Founded not found</v>
+        <v>2020</v>
       </c>
       <c r="J15" t="str">
         <v/>
@@ -929,101 +929,101 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Jim Angleton</v>
+        <v>Yu Sung Yeh</v>
       </c>
       <c r="B16" t="str">
-        <v>Law Enforcement &amp; Technology Federal Credit Union</v>
+        <v>Pinscreen</v>
       </c>
       <c r="C16" t="str">
-        <v>http://unitedpolicefcu.com</v>
+        <v>http://www.pinscreen.com</v>
       </c>
       <c r="D16" t="str">
-        <v>unitedpolicefcu.com</v>
+        <v>pinscreen.com</v>
       </c>
       <c r="E16" t="str">
-        <v>Financial Services</v>
+        <v>Technology, Information and Internet</v>
       </c>
       <c r="F16" t="str">
         <v>11-50 employees</v>
       </c>
       <c r="G16" t="str">
-        <v>Miami, FL</v>
+        <v>Los Angeles, CA</v>
       </c>
       <c r="H16" t="str">
-        <v>Nonprofit</v>
+        <v>Privately Held</v>
       </c>
       <c r="I16" t="str">
-        <v>1936</v>
+        <v>2015</v>
       </c>
       <c r="J16" t="str">
-        <v/>
+        <v>yusung@pinscreen.com, yu.sung@pinscreen.com, yu@pinscreen.com, y.sung@pinscreen.com, ysung@pinscreen.com, sungyu@pinscreen.com, sung.yu@pinscreen.com, sung@pinscreen.com, s.yu@pinscreen.com, syu@pinscreen.com, sy@pinscreen.com, s.y@pinscreen.com, ys@pinscreen.com, y.s@pinscreen.com, yuyeh@pinscreen.com, yu.yeh@pinscreen.com, y.yeh@pinscreen.com, yyeh@pinscreen.com, yehyu@pinscreen.com, yeh.yu@pinscreen.com, yeh@pinscreen.com, y.yu@pinscreen.com, yyu@pinscreen.com, yy@pinscreen.com, y.y@pinscreen.com, sungyeh@pinscreen.com, sung.yeh@pinscreen.com, s.yeh@pinscreen.com, syeh@pinscreen.com, yehsung@pinscreen.com, yeh.sung@pinscreen.com</v>
       </c>
       <c r="K16" t="str">
-        <v>no emails found</v>
+        <v>catchall</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Vladimir Lialine</v>
+        <v>Brett King</v>
       </c>
       <c r="B17" t="str">
-        <v>TWIXSOFT</v>
+        <v>The Futurists Network</v>
       </c>
       <c r="C17" t="str">
-        <v>https://Twixsoft.com</v>
+        <v>http://www.thefuturists.com</v>
       </c>
       <c r="D17" t="str">
-        <v>Twixsoft.com</v>
+        <v>thefuturists.com</v>
       </c>
       <c r="E17" t="str">
-        <v>Software Development</v>
+        <v>Technology, Information and Media</v>
       </c>
       <c r="F17" t="str">
-        <v>11-50 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G17" t="str">
-        <v>Old Greenwich, Connecticut</v>
+        <v>New York and Los Angeles</v>
       </c>
       <c r="H17" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I17" t="str">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="J17" t="str">
-        <v>vladimirlialine@Twixsoft.com, vladimir.lialine@Twixsoft.com, vladimir@Twixsoft.com, v.lialine@Twixsoft.com, vlialine@Twixsoft.com, lialinevladimir@Twixsoft.com, lialine.vladimir@Twixsoft.com, lialine@Twixsoft.com, l.vladimir@Twixsoft.com, lvladimir@Twixsoft.com, lv@Twixsoft.com, l.v@Twixsoft.com, vl@Twixsoft.com, v.l@Twixsoft.com</v>
+        <v/>
       </c>
       <c r="K17" t="str">
-        <v>catchall</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Richard Groome</v>
+        <v>Jim Angleton</v>
       </c>
       <c r="B18" t="str">
-        <v>Notre-Dame Capital Inc.</v>
+        <v>Law Enforcement &amp; Technology Federal Credit Union</v>
       </c>
       <c r="C18" t="str">
-        <v>http://www.notredamecapital.com</v>
+        <v>http://unitedpolicefcu.com</v>
       </c>
       <c r="D18" t="str">
-        <v>notredamecapital.com</v>
+        <v>unitedpolicefcu.com</v>
       </c>
       <c r="E18" t="str">
         <v>Financial Services</v>
       </c>
       <c r="F18" t="str">
-        <v>2-10 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G18" t="str">
-        <v>Montreal, Quebec</v>
+        <v>Miami, FL</v>
       </c>
       <c r="H18" t="str">
-        <v>Privately Held</v>
+        <v>Nonprofit</v>
       </c>
       <c r="I18" t="str">
-        <v>2006</v>
+        <v>1936</v>
       </c>
       <c r="J18" t="str">
         <v/>
@@ -1034,101 +1034,101 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Eric Blue</v>
+        <v>Vladimir Lialine</v>
       </c>
       <c r="B19" t="str">
-        <v>Nevly</v>
+        <v>TWIXSOFT</v>
       </c>
       <c r="C19" t="str">
-        <v>https://nevly.com</v>
+        <v>https://Twixsoft.com</v>
       </c>
       <c r="D19" t="str">
-        <v>nevly.com</v>
+        <v>Twixsoft.com</v>
       </c>
       <c r="E19" t="str">
-        <v>Financial Services</v>
+        <v>Software Development</v>
       </c>
       <c r="F19" t="str">
-        <v>2-10 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G19" t="str">
-        <v>Washington, DC</v>
+        <v>Old Greenwich, Connecticut</v>
       </c>
       <c r="H19" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I19" t="str">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="J19" t="str">
-        <v/>
+        <v>vladimirlialine@Twixsoft.com, vladimir.lialine@Twixsoft.com, vladimir@Twixsoft.com, v.lialine@Twixsoft.com, vlialine@Twixsoft.com, lialinevladimir@Twixsoft.com, lialine.vladimir@Twixsoft.com, lialine@Twixsoft.com, l.vladimir@Twixsoft.com, lvladimir@Twixsoft.com, lv@Twixsoft.com, l.v@Twixsoft.com, vl@Twixsoft.com, v.l@Twixsoft.com</v>
       </c>
       <c r="K19" t="str">
-        <v>no emails found</v>
+        <v>catchall</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Ash Bassili</v>
+        <v>Eric Burger</v>
       </c>
       <c r="B20" t="str">
-        <v>myLaminin</v>
+        <v>Public Interest Registry</v>
       </c>
       <c r="C20" t="str">
-        <v>http://www.mylaminin.net</v>
+        <v>http://pir.org</v>
       </c>
       <c r="D20" t="str">
-        <v>mylaminin.net</v>
+        <v>pir.org</v>
       </c>
       <c r="E20" t="str">
-        <v>IT Services and IT Consulting</v>
+        <v>Technology, Information and Internet</v>
       </c>
       <c r="F20" t="str">
-        <v>2-10 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G20" t="str">
-        <v>Kingston, Ontario</v>
+        <v>Reston, Virginia</v>
       </c>
       <c r="H20" t="str">
-        <v>Privately Held</v>
+        <v>Nonprofit</v>
       </c>
       <c r="I20" t="str">
-        <v>2021</v>
+        <v>2002</v>
       </c>
       <c r="J20" t="str">
-        <v>ashbassili@mylaminin.net, ash@mylaminin.net</v>
+        <v/>
       </c>
       <c r="K20" t="str">
-        <v>valid</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Gene Monaco</v>
+        <v>Matt Waters</v>
       </c>
       <c r="B21" t="str">
-        <v>MediTechnix Incorporated</v>
+        <v>Unchained Music</v>
       </c>
       <c r="C21" t="str">
-        <v>http://meditechnix.com</v>
+        <v>https://www.unchainedmusic.io</v>
       </c>
       <c r="D21" t="str">
-        <v>meditechnix.com</v>
+        <v>unchainedmusic.io</v>
       </c>
       <c r="E21" t="str">
-        <v>Hospitals and Health Care</v>
+        <v>Musicians</v>
       </c>
       <c r="F21" t="str">
-        <v>10,001+ employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G21" t="str">
-        <v>Headquater location not found</v>
+        <v>Denver, CO</v>
       </c>
       <c r="H21" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I21" t="str">
-        <v>2010</v>
+        <v>2021</v>
       </c>
       <c r="J21" t="str">
         <v/>
@@ -1139,34 +1139,34 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Greg McGregor</v>
+        <v>Sergio Chaverri</v>
       </c>
       <c r="B22" t="str">
-        <v>Bright Apps LLC</v>
+        <v>BlockAxess</v>
       </c>
       <c r="C22" t="str">
-        <v>http://www.brightappsllc.com</v>
+        <v>https://www.blockaxess.io</v>
       </c>
       <c r="D22" t="str">
-        <v>brightappsllc.com</v>
+        <v>blockaxess.io</v>
       </c>
       <c r="E22" t="str">
-        <v>Software Development</v>
+        <v>Financial Services</v>
       </c>
       <c r="F22" t="str">
-        <v>11-50 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G22" t="str">
-        <v>Walnut Creek, CA</v>
+        <v>Santa Fe, Cuajimalpa de Morelos, Ciudad de México</v>
       </c>
       <c r="H22" t="str">
-        <v>Self-Owned</v>
+        <v>Privately Held</v>
       </c>
       <c r="I22" t="str">
-        <v>1990</v>
+        <v>2022</v>
       </c>
       <c r="J22" t="str">
-        <v>greg@brightappsllc.com</v>
+        <v>sergio@blockaxess.io</v>
       </c>
       <c r="K22" t="str">
         <v>valid</v>
@@ -1174,66 +1174,66 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Paulo Eduardo Padula</v>
+        <v>Farooq Zafar</v>
       </c>
       <c r="B23" t="str">
-        <v>Plug and Play Tech Center</v>
+        <v>Scale AI</v>
       </c>
       <c r="C23" t="str">
-        <v>https://www.plugandplaytechcenter.com/</v>
+        <v>https://scale.com</v>
       </c>
       <c r="D23" t="str">
-        <v>plugandplaytechcenter.com</v>
+        <v>scale.com</v>
       </c>
       <c r="E23" t="str">
-        <v>Venture Capital and Private Equity Principals</v>
+        <v>Software Development</v>
       </c>
       <c r="F23" t="str">
-        <v>501-1,000 employees</v>
+        <v>1,001-5,000 employees</v>
       </c>
       <c r="G23" t="str">
-        <v>Sunnyvale, CA</v>
+        <v>San Francisco, California</v>
       </c>
       <c r="H23" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I23" t="str">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="J23" t="str">
-        <v/>
+        <v>farooqzafar@scale.com, farooq.zafar@scale.com, farooq@scale.com, f.zafar@scale.com, fzafar@scale.com, zafarfarooq@scale.com, zafar.farooq@scale.com, zafar@scale.com, z.farooq@scale.com, zfarooq@scale.com, zf@scale.com, z.f@scale.com, fz@scale.com, f.z@scale.com</v>
       </c>
       <c r="K23" t="str">
-        <v>no emails found</v>
+        <v>catchall</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Lothar Soliwon</v>
+        <v>Richard Bunker</v>
       </c>
       <c r="B24" t="str">
-        <v>ZG Worldwide Consultants (A Multi-specialty Group)</v>
+        <v>Inveniam</v>
       </c>
       <c r="C24" t="str">
-        <v>https://www.zgworldwide.com</v>
+        <v>https://inveniam.io/</v>
       </c>
       <c r="D24" t="str">
-        <v>zgworldwide.com</v>
+        <v>inveniam.io</v>
       </c>
       <c r="E24" t="str">
-        <v>Business Consulting and Services</v>
+        <v>Financial Services</v>
       </c>
       <c r="F24" t="str">
         <v>51-200 employees</v>
       </c>
       <c r="G24" t="str">
-        <v>Springfield, Illinois</v>
+        <v>New York, NY</v>
       </c>
       <c r="H24" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I24" t="str">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="J24" t="str">
         <v/>
@@ -1244,31 +1244,31 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Shekhar Pawar</v>
+        <v>Lawrence Bergenfield</v>
       </c>
       <c r="B25" t="str">
-        <v>SecureClaw</v>
+        <v>Uptime Charger</v>
       </c>
       <c r="C25" t="str">
-        <v>https://secureclaw.com</v>
+        <v>http://www.uptimecharger.com</v>
       </c>
       <c r="D25" t="str">
-        <v>secureclaw.com</v>
+        <v>uptimecharger.com</v>
       </c>
       <c r="E25" t="str">
-        <v>IT Services and IT Consulting</v>
+        <v>Transportation, Logistics, Supply Chain and Storage</v>
       </c>
       <c r="F25" t="str">
         <v>11-50 employees</v>
       </c>
       <c r="G25" t="str">
-        <v>Dover, Deleware</v>
+        <v>Waterford, Michigan</v>
       </c>
       <c r="H25" t="str">
         <v>Privately Held</v>
       </c>
       <c r="I25" t="str">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J25" t="str">
         <v/>
@@ -1279,66 +1279,66 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Christian Moreno</v>
+        <v>Greg McGregor</v>
       </c>
       <c r="B26" t="str">
-        <v>GoKapital</v>
+        <v>Bright Apps LLC</v>
       </c>
       <c r="C26" t="str">
-        <v>https://www.GoKapital.com</v>
+        <v>http://www.brightappsllc.com</v>
       </c>
       <c r="D26" t="str">
-        <v>GoKapital.com</v>
+        <v>brightappsllc.com</v>
       </c>
       <c r="E26" t="str">
-        <v>Financial Services</v>
+        <v>Software Development</v>
       </c>
       <c r="F26" t="str">
         <v>11-50 employees</v>
       </c>
       <c r="G26" t="str">
-        <v>Miami, Florida</v>
+        <v>Walnut Creek, CA</v>
       </c>
       <c r="H26" t="str">
-        <v>Privately Held</v>
+        <v>Self-Owned</v>
       </c>
       <c r="I26" t="str">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>greg@brightappsllc.com</v>
       </c>
       <c r="K26" t="str">
-        <v>no emails found</v>
+        <v>valid</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Andres Diaz Martinez</v>
+        <v>ERICK CACERES MORROBEL</v>
       </c>
       <c r="B27" t="str">
-        <v>Plug and Play Tech Center</v>
+        <v>REICROWD</v>
       </c>
       <c r="C27" t="str">
-        <v>https://www.plugandplaytechcenter.com/</v>
+        <v>https://www.reicrowd.io</v>
       </c>
       <c r="D27" t="str">
-        <v>plugandplaytechcenter.com</v>
+        <v>reicrowd.io</v>
       </c>
       <c r="E27" t="str">
-        <v>Venture Capital and Private Equity Principals</v>
+        <v>Real Estate</v>
       </c>
       <c r="F27" t="str">
-        <v>501-1,000 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G27" t="str">
-        <v>Sunnyvale, CA</v>
+        <v>East Rutherford, NJ</v>
       </c>
       <c r="H27" t="str">
-        <v>Privately Held</v>
+        <v>Partnership</v>
       </c>
       <c r="I27" t="str">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="J27" t="str">
         <v/>
@@ -1349,69 +1349,69 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Nasir T.</v>
+        <v>Jeffrey Maganis</v>
       </c>
       <c r="B28" t="str">
-        <v>Upwork</v>
+        <v>Blockchain Capital</v>
       </c>
       <c r="C28" t="str">
-        <v>https://www.upwork.com/</v>
+        <v>http://www.blockchaincapital.com</v>
       </c>
       <c r="D28" t="str">
-        <v>upwork.com</v>
+        <v>blockchaincapital.com</v>
       </c>
       <c r="E28" t="str">
-        <v>Technology, Information and Internet</v>
+        <v>Venture Capital and Private Equity Principals</v>
       </c>
       <c r="F28" t="str">
-        <v>501-1,000 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G28" t="str">
-        <v>San Francisco, California</v>
+        <v>San Francisco, CA</v>
       </c>
       <c r="H28" t="str">
-        <v>Public Company</v>
+        <v>Partnership</v>
       </c>
       <c r="I28" t="str">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="J28" t="str">
-        <v>nasirt.@upwork.com, nasir.t.@upwork.com, nasir@upwork.com, n.t.@upwork.com, nt.@upwork.com, t.nasir@upwork.com, t.@upwork.com, tnasir@upwork.com, tn@upwork.com, t.n@upwork.com, nt@upwork.com, n.t@upwork.com</v>
+        <v/>
       </c>
       <c r="K28" t="str">
-        <v>catchall</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Nic Solecki</v>
+        <v>Jim Delli Santi</v>
       </c>
       <c r="B29" t="str">
-        <v>Marquette Associates</v>
+        <v>JWDS CONSULTING</v>
       </c>
       <c r="C29" t="str">
-        <v>http://www.marquetteassociates.com</v>
+        <v>https://www.jwdsconsulting.com/</v>
       </c>
       <c r="D29" t="str">
-        <v>marquetteassociates.com</v>
+        <v>jwdsconsulting.com</v>
       </c>
       <c r="E29" t="str">
-        <v>Financial Services</v>
+        <v>Business Consulting and Services</v>
       </c>
       <c r="F29" t="str">
-        <v>51-200 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G29" t="str">
-        <v>Chicago, IL</v>
+        <v>Los Gatos, CA</v>
       </c>
       <c r="H29" t="str">
-        <v>Privately Held</v>
+        <v>Self-Owned</v>
       </c>
       <c r="I29" t="str">
-        <v>1986</v>
+        <v>2015</v>
       </c>
       <c r="J29" t="str">
-        <v>nsolecki@marquetteassociates.com</v>
+        <v>jim@jwdsconsulting.com</v>
       </c>
       <c r="K29" t="str">
         <v>valid</v>
@@ -1419,66 +1419,66 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Linda Goetze</v>
+        <v>Lee Richter</v>
       </c>
       <c r="B30" t="str">
-        <v>Blockchain Chamber of Commerce</v>
+        <v>Event Planners Association</v>
       </c>
       <c r="C30" t="str">
-        <v>http://www.blockchainchamber.org</v>
+        <v>http://eventplannersassociation.com/</v>
       </c>
       <c r="D30" t="str">
-        <v>blockchainchamber.org</v>
+        <v>eventplannersassociation.com</v>
       </c>
       <c r="E30" t="str">
-        <v>Information Technology &amp; Services</v>
+        <v>Events Services</v>
       </c>
       <c r="F30" t="str">
-        <v>2-10 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G30" t="str">
-        <v>Atlanta, GA</v>
+        <v>Oakland, California</v>
       </c>
       <c r="H30" t="str">
-        <v>Nonprofit</v>
+        <v>Public Company</v>
       </c>
       <c r="I30" t="str">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="J30" t="str">
-        <v>linda.goetze@blockchainchamber.org, linda@blockchainchamber.org</v>
+        <v>leerichter@eventplannersassociation.com, lee.richter@eventplannersassociation.com, lee@eventplannersassociation.com, l.richter@eventplannersassociation.com, lrichter@eventplannersassociation.com, richterlee@eventplannersassociation.com, richter.lee@eventplannersassociation.com, richter@eventplannersassociation.com, r.lee@eventplannersassociation.com, rlee@eventplannersassociation.com, rl@eventplannersassociation.com, r.l@eventplannersassociation.com, lr@eventplannersassociation.com, l.r@eventplannersassociation.com</v>
       </c>
       <c r="K30" t="str">
-        <v>valid</v>
+        <v>catchall</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Issa jérémy Victor</v>
+        <v>Martin Vivas</v>
       </c>
       <c r="B31" t="str">
-        <v>Camelcoin Project</v>
+        <v>Google</v>
       </c>
       <c r="C31" t="str">
-        <v>http://www.camelcoin.io</v>
+        <v>https://goo.gle/3DLEokh</v>
       </c>
       <c r="D31" t="str">
-        <v>camelcoin.io</v>
+        <v>goo.gle</v>
       </c>
       <c r="E31" t="str">
-        <v>Financial Services</v>
+        <v>Software Development</v>
       </c>
       <c r="F31" t="str">
-        <v>11-50 employees</v>
+        <v>10,001+ employees</v>
       </c>
       <c r="G31" t="str">
-        <v>San Jose, Carmen district</v>
+        <v>Mountain View, CA</v>
       </c>
       <c r="H31" t="str">
-        <v>Nonprofit</v>
+        <v>Public Company</v>
       </c>
       <c r="I31" t="str">
-        <v>2020</v>
+        <v>When Founded not found</v>
       </c>
       <c r="J31" t="str">
         <v/>
@@ -1489,31 +1489,31 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Amir Tabei</v>
+        <v>Robin P. Belle</v>
       </c>
       <c r="B32" t="str">
-        <v>Dallas Museum of Art</v>
+        <v>SMARTR JOINT VENTURE CAPITAL CORP</v>
       </c>
       <c r="C32" t="str">
-        <v>http://www.DMA.org</v>
+        <v>https://www.smartr.fund</v>
       </c>
       <c r="D32" t="str">
-        <v>DMA.org</v>
+        <v>smartr.fund</v>
       </c>
       <c r="E32" t="str">
-        <v>Museums, Historical Sites, and Zoos</v>
+        <v>Technology, Information and Media</v>
       </c>
       <c r="F32" t="str">
-        <v>201-500 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G32" t="str">
-        <v>Dallas, TX</v>
+        <v>Sheridan, WY</v>
       </c>
       <c r="H32" t="str">
-        <v>Nonprofit</v>
+        <v>Privately Held</v>
       </c>
       <c r="I32" t="str">
-        <v>1903</v>
+        <v>2020</v>
       </c>
       <c r="J32" t="str">
         <v/>
@@ -1524,66 +1524,66 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Karlo Turk</v>
+        <v>Praveen K. Varshney</v>
       </c>
       <c r="B33" t="str">
-        <v>Credit Metaverse</v>
+        <v>Varshney Capital Corp.</v>
       </c>
       <c r="C33" t="str">
-        <v>https://creditmetaverse.io/</v>
+        <v>http://www.varshneycapital.com</v>
       </c>
       <c r="D33" t="str">
-        <v>creditmetaverse.io</v>
+        <v>varshneycapital.com</v>
       </c>
       <c r="E33" t="str">
-        <v>الخدمات المالية</v>
+        <v>Venture Capital and Private Equity Principals</v>
       </c>
       <c r="F33" t="str">
-        <v>١١- ٥٠ موظف</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G33" t="str">
-        <v>Dubai</v>
+        <v>Vancouver, British Columbia</v>
       </c>
       <c r="H33" t="str">
-        <v>شركة يملكها عدد قليل من الأشخاص</v>
+        <v>Privately Held</v>
       </c>
       <c r="I33" t="str">
-        <v>2021</v>
+        <v>When Founded not found</v>
       </c>
       <c r="J33" t="str">
-        <v>karlo@creditmetaverse.io</v>
+        <v/>
       </c>
       <c r="K33" t="str">
-        <v>valid</v>
+        <v>no emails found</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>David Lucatch</v>
+        <v>Arnie Isaacs</v>
       </c>
       <c r="B34" t="str">
-        <v>Liquid Avatar Technologies</v>
+        <v>Private Company</v>
       </c>
       <c r="C34" t="str">
-        <v>http://www.liquidavatartechnologies.com</v>
+        <v>http://buzz2bucks.com</v>
       </c>
       <c r="D34" t="str">
-        <v>liquidavatartechnologies.com</v>
+        <v>buzz2bucks.com</v>
       </c>
       <c r="E34" t="str">
-        <v>Financial Services</v>
+        <v>Advertising Services</v>
       </c>
       <c r="F34" t="str">
-        <v>2-10 employees</v>
+        <v>11-50 employees</v>
       </c>
       <c r="G34" t="str">
-        <v>Burnaby, British Columbia</v>
+        <v>New York, NY</v>
       </c>
       <c r="H34" t="str">
-        <v>Partnership</v>
+        <v>Privately Held</v>
       </c>
       <c r="I34" t="str">
-        <v>2017</v>
+        <v>When Founded not found</v>
       </c>
       <c r="J34" t="str">
         <v/>
@@ -1594,31 +1594,31 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Dan Hannigan Daley</v>
+        <v>Beth Silverberg</v>
       </c>
       <c r="B35" t="str">
-        <v>Sports Info Solutions</v>
+        <v>The Sports Girls LLC</v>
       </c>
       <c r="C35" t="str">
-        <v>http://sportsinfosolutions.com</v>
+        <v>http://www.thesportsgirls.com</v>
       </c>
       <c r="D35" t="str">
-        <v>sportsinfosolutions.com</v>
+        <v>thesportsgirls.com</v>
       </c>
       <c r="E35" t="str">
-        <v>Spectator Sports</v>
+        <v>Media Production</v>
       </c>
       <c r="F35" t="str">
-        <v>51-200 employees</v>
+        <v>2-10 employees</v>
       </c>
       <c r="G35" t="str">
-        <v>Coplay, PA</v>
+        <v>Hollywood</v>
       </c>
       <c r="H35" t="str">
-        <v>Privately Held</v>
+        <v>Public Company</v>
       </c>
       <c r="I35" t="str">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="J35" t="str">
         <v/>
@@ -1629,42 +1629,2107 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Lee Richter</v>
+        <v>Tyrrell Smith</v>
       </c>
       <c r="B36" t="str">
-        <v>Event Planners Association</v>
+        <v>PostNet International Franchise Corporation</v>
       </c>
       <c r="C36" t="str">
-        <v>http://eventplannersassociation.com/</v>
+        <v>http://www.PostNet.com</v>
       </c>
       <c r="D36" t="str">
-        <v>eventplannersassociation.com</v>
+        <v>PostNet.com</v>
       </c>
       <c r="E36" t="str">
-        <v>Events Services</v>
+        <v>Printing Services</v>
       </c>
       <c r="F36" t="str">
-        <v>11-50 employees</v>
+        <v>501-1,000 employees</v>
       </c>
       <c r="G36" t="str">
-        <v>Oakland, California</v>
+        <v>Lakewood, CO</v>
       </c>
       <c r="H36" t="str">
-        <v>Public Company</v>
+        <v>Privately Held</v>
       </c>
       <c r="I36" t="str">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="J36" t="str">
-        <v>leerichter@eventplannersassociation.com, lee.richter@eventplannersassociation.com, lee@eventplannersassociation.com, l.richter@eventplannersassociation.com, lrichter@eventplannersassociation.com, richterlee@eventplannersassociation.com, richter.lee@eventplannersassociation.com, richter@eventplannersassociation.com, r.lee@eventplannersassociation.com, rlee@eventplannersassociation.com, rl@eventplannersassociation.com, r.l@eventplannersassociation.com, lr@eventplannersassociation.com, l.r@eventplannersassociation.com</v>
+        <v>tyrrellsmith@PostNet.com, tyrrell.smith@PostNet.com, tyrrell@PostNet.com, t.smith@PostNet.com, tsmith@PostNet.com, smithtyrrell@PostNet.com, smith.tyrrell@PostNet.com, smith@PostNet.com, s.tyrrell@PostNet.com, styrrell@PostNet.com, st@PostNet.com, s.t@PostNet.com, ts@PostNet.com, t.s@PostNet.com</v>
       </c>
       <c r="K36" t="str">
         <v>catchall</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Shekhar Pawar</v>
+      </c>
+      <c r="B37" t="str">
+        <v>SecureClaw</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://secureclaw.com</v>
+      </c>
+      <c r="D37" t="str">
+        <v>secureclaw.com</v>
+      </c>
+      <c r="E37" t="str">
+        <v>IT Services and IT Consulting</v>
+      </c>
+      <c r="F37" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Dover, Deleware</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I37" t="str">
+        <v>2022</v>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Chima Nwala Executive Coach</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Hangout Corporation</v>
+      </c>
+      <c r="C38" t="str">
+        <v>http://www.hangoutcorp.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v>hangoutcorp.com</v>
+      </c>
+      <c r="E38" t="str">
+        <v>IT Services and IT Consulting</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Seattle, Washington</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I38" t="str">
+        <v>1996</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Taewook K.</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Einstrong Foundation</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://www.einstrong.org/</v>
+      </c>
+      <c r="D39" t="str">
+        <v>einstrong.org</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Philanthropic Fundraising Services</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Pasadena, CA</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Nonprofit</v>
+      </c>
+      <c r="I39" t="str">
+        <v>When Founded not found</v>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Lisa Nelson</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Velvet Suite, Inc.</v>
+      </c>
+      <c r="C40" t="str">
+        <v>http://www.velvetsuite.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>velvetsuite.com</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Executive Offices</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Reston, VIRGINIA</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Public Company</v>
+      </c>
+      <c r="I40" t="str">
+        <v>2006</v>
+      </c>
+      <c r="J40" t="str">
+        <v>lnelson@velvetsuite.com</v>
+      </c>
+      <c r="K40" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Itay Komorovski</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Call4Peace LLC.</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://call4peace.com</v>
+      </c>
+      <c r="D41" t="str">
+        <v>call4peace.com</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Technology, Information and Internet</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Jersey City, New Jersey</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I41" t="str">
+        <v>2005</v>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Jason B.</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Commonwealth Capital LLC</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://commonwealthcapital.com</v>
+      </c>
+      <c r="D42" t="str">
+        <v>commonwealthcapital.com</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Venture Capital and Private Equity Principals</v>
+      </c>
+      <c r="F42" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G42" t="str">
+        <v>West Palm Beach, Florida</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I42" t="str">
+        <v>1998</v>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Sergey Shayakhmetov</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Binpong</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://binpong.com</v>
+      </c>
+      <c r="D43" t="str">
+        <v>binpong.com</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Mobile Gaming Apps</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Dover, Delaware</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Partnership</v>
+      </c>
+      <c r="I43" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J43" t="str">
+        <v>sergeyshayakhmetov@binpong.com, sergey.shayakhmetov@binpong.com, sergey@binpong.com, s.shayakhmetov@binpong.com, sshayakhmetov@binpong.com, shayakhmetovsergey@binpong.com, shayakhmetov.sergey@binpong.com, shayakhmetov@binpong.com, s.sergey@binpong.com, ssergey@binpong.com, ss@binpong.com, s.s@binpong.com</v>
+      </c>
+      <c r="K43" t="str">
+        <v>catchall</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>David Carmell</v>
+      </c>
+      <c r="B44" t="str">
+        <v>DealRockit</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://dealrockit.com</v>
+      </c>
+      <c r="D44" t="str">
+        <v>dealrockit.com</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Technology, Information and Internet</v>
+      </c>
+      <c r="F44" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Chicago, Illinois</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I44" t="str">
+        <v>2019</v>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Robert Toker</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Temo Power Inc.</v>
+      </c>
+      <c r="C45" t="str">
+        <v>http://www.temopower.com/</v>
+      </c>
+      <c r="D45" t="str">
+        <v>temopower.com</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Renewable Energy Semiconductor Manufacturing</v>
+      </c>
+      <c r="F45" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Somerset, New Jersey</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I45" t="str">
+        <v>2018</v>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Eric Blue</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Nevly</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://nevly.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>nevly.com</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Washington, DC</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I46" t="str">
+        <v>2021</v>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Jeff Brooks</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Brooks Recruiting</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://www.brooksrecruiting.com</v>
+      </c>
+      <c r="D47" t="str">
+        <v>brooksrecruiting.com</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Staffing and Recruiting</v>
+      </c>
+      <c r="F47" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Chicago, Illinois</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I47" t="str">
+        <v>2015</v>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Dan Hannigan Daley</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Sports Info Solutions</v>
+      </c>
+      <c r="C48" t="str">
+        <v>http://sportsinfosolutions.com</v>
+      </c>
+      <c r="D48" t="str">
+        <v>sportsinfosolutions.com</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Spectator Sports</v>
+      </c>
+      <c r="F48" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Coplay, PA</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I48" t="str">
+        <v>2002</v>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Konstantin J.</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Bitcoin Inc.</v>
+      </c>
+      <c r="C49" t="str">
+        <v>twitter.com/Nodefather</v>
+      </c>
+      <c r="D49" t="str">
+        <v>twitter.com</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Utilities</v>
+      </c>
+      <c r="F49" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Las Vegas, NV</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I49" t="str">
+        <v>2011</v>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Jean Gabriel Paquette</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Seaclub</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://seaclub.io?utm_source=linkedin&amp;utm_medium=bizpage</v>
+      </c>
+      <c r="D50" t="str">
+        <v>seaclub.io?utm_source=linkedin&amp;utm_medium=bizpage</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Outsourcing and Offshoring Consulting</v>
+      </c>
+      <c r="F50" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Montreal</v>
+      </c>
+      <c r="H50" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I50" t="str">
+        <v>2022</v>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Cori Baldasare</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Demand.io</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://demand.io</v>
+      </c>
+      <c r="D51" t="str">
+        <v>demand.io</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Technology, Information and Internet</v>
+      </c>
+      <c r="F51" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Los Angeles, California</v>
+      </c>
+      <c r="H51" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I51" t="str">
+        <v>2009</v>
+      </c>
+      <c r="J51" t="str">
+        <v>coribaldasare@demand.io, cori.baldasare@demand.io, cori@demand.io, c.baldasare@demand.io, cbaldasare@demand.io, baldasarecori@demand.io, baldasare.cori@demand.io, baldasare@demand.io, b.cori@demand.io, bcori@demand.io, bc@demand.io, b.c@demand.io, cb@demand.io, c.b@demand.io</v>
+      </c>
+      <c r="K51" t="str">
+        <v>catchall</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>David Lucatch</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Liquid Avatar Technologies</v>
+      </c>
+      <c r="C52" t="str">
+        <v>http://www.liquidavatartechnologies.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>liquidavatartechnologies.com</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F52" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Burnaby, British Columbia</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Partnership</v>
+      </c>
+      <c r="I52" t="str">
+        <v>2017</v>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Brett Berhoff</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Strategy.xyz</v>
+      </c>
+      <c r="C53" t="str">
+        <v>http://www.Strategy.xyz</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Strategy.xyz</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Executive Offices</v>
+      </c>
+      <c r="F53" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G53" t="str">
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="H53" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I53" t="str">
+        <v>When Founded not found</v>
+      </c>
+      <c r="J53" t="str">
+        <v>brett@Strategy.xyz</v>
+      </c>
+      <c r="K53" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Daniel Addison</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Health Blockchain Security Services (HCISS) LLC</v>
+      </c>
+      <c r="C54" t="str">
+        <v>http://hciss.io</v>
+      </c>
+      <c r="D54" t="str">
+        <v>hciss.io</v>
+      </c>
+      <c r="E54" t="str">
+        <v>IT Services and IT Consulting</v>
+      </c>
+      <c r="F54" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Chicago, Illinois</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Self-Owned</v>
+      </c>
+      <c r="I54" t="str">
+        <v>2020</v>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Camila Farani</v>
+      </c>
+      <c r="B55" t="str">
+        <v>GAA Investments</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://www.gaainvestments.com</v>
+      </c>
+      <c r="D55" t="str">
+        <v>gaainvestments.com</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Investment Management</v>
+      </c>
+      <c r="F55" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Weston, Flórida</v>
+      </c>
+      <c r="H55" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I55" t="str">
+        <v>2017</v>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Matt Coleman</v>
+      </c>
+      <c r="B56" t="str">
+        <v>FansXR</v>
+      </c>
+      <c r="C56" t="str">
+        <v>http://www.fansxr.com</v>
+      </c>
+      <c r="D56" t="str">
+        <v>fansxr.com</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="F56" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Las Vegas, NEVADA (NV)</v>
+      </c>
+      <c r="H56" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I56" t="str">
+        <v>2018</v>
+      </c>
+      <c r="J56" t="str">
+        <v>matt@fansxr.com</v>
+      </c>
+      <c r="K56" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Neor Basteker</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Crypto Bank</v>
+      </c>
+      <c r="C57" t="str">
+        <v>http://www.crypto-bank.io</v>
+      </c>
+      <c r="D57" t="str">
+        <v>crypto-bank.io</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10,001+ employees</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Sheridan, Wyoming</v>
+      </c>
+      <c r="H57" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I57" t="str">
+        <v>2018</v>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Gene Monaco</v>
+      </c>
+      <c r="B58" t="str">
+        <v>MediTechnix Incorporated</v>
+      </c>
+      <c r="C58" t="str">
+        <v>http://meditechnix.com</v>
+      </c>
+      <c r="D58" t="str">
+        <v>meditechnix.com</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Hospitals and Health Care</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10,001+ employees</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Headquater location not found</v>
+      </c>
+      <c r="H58" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I58" t="str">
+        <v>2010</v>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Denny Darmo</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Snipitz</v>
+      </c>
+      <c r="C59" t="str">
+        <v>http://www.snipitz.com</v>
+      </c>
+      <c r="D59" t="str">
+        <v>snipitz.com</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Online Audio and Video Media</v>
+      </c>
+      <c r="F59" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G59" t="str">
+        <v>McKinney, TX</v>
+      </c>
+      <c r="H59" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I59" t="str">
+        <v>2019</v>
+      </c>
+      <c r="J59" t="str">
+        <v>denny.darmo@snipitz.com, denny@snipitz.com, d.darmo@snipitz.com, ddarmo@snipitz.com, darmodenny@snipitz.com, darmo.denny@snipitz.com, darmo@snipitz.com, d.denny@snipitz.com, ddenny@snipitz.com, dd@snipitz.com, d.d@snipitz.com</v>
+      </c>
+      <c r="K59" t="str">
+        <v>catchall</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Michael J Levas</v>
+      </c>
+      <c r="B60" t="str">
+        <v>US Capital</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://uscapital.com</v>
+      </c>
+      <c r="D60" t="str">
+        <v>uscapital.com</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Investment Banking</v>
+      </c>
+      <c r="F60" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G60" t="str">
+        <v>San Francisco, CA</v>
+      </c>
+      <c r="H60" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I60" t="str">
+        <v>1998</v>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Alejandro Hernández Bringas</v>
+      </c>
+      <c r="B61" t="str">
+        <v>MCM Telecom</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://www.mcmtelecom.com</v>
+      </c>
+      <c r="D61" t="str">
+        <v>mcmtelecom.com</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Telecommunications</v>
+      </c>
+      <c r="F61" t="str">
+        <v>201-500 employees</v>
+      </c>
+      <c r="G61" t="str">
+        <v>México, CDMX</v>
+      </c>
+      <c r="H61" t="str">
+        <v>Public Company</v>
+      </c>
+      <c r="I61" t="str">
+        <v>1996</v>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Nina Sichtermann</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Chief</v>
+      </c>
+      <c r="C62" t="str">
+        <v>http://chief.com</v>
+      </c>
+      <c r="D62" t="str">
+        <v>chief.com</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Think Tanks</v>
+      </c>
+      <c r="F62" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G62" t="str">
+        <v>New York, NY</v>
+      </c>
+      <c r="H62" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I62" t="str">
+        <v>2019</v>
+      </c>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Dan Kehoe</v>
+      </c>
+      <c r="B63" t="str">
+        <v>4cE</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Website not Found</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Website not Found</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Business Consulting and Services</v>
+      </c>
+      <c r="F63" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Atlanta, Georgia</v>
+      </c>
+      <c r="H63" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I63" t="str">
+        <v>2019</v>
+      </c>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Amir Tabei</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Dallas Museum of Art</v>
+      </c>
+      <c r="C64" t="str">
+        <v>http://www.DMA.org</v>
+      </c>
+      <c r="D64" t="str">
+        <v>DMA.org</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Museums, Historical Sites, and Zoos</v>
+      </c>
+      <c r="F64" t="str">
+        <v>201-500 employees</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Dallas, TX</v>
+      </c>
+      <c r="H64" t="str">
+        <v>Nonprofit</v>
+      </c>
+      <c r="I64" t="str">
+        <v>1903</v>
+      </c>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Loel K. Wood</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Blue Diamond Almonds Global Ingredients</v>
+      </c>
+      <c r="C65" t="str">
+        <v>http://www.bdingredients.com/</v>
+      </c>
+      <c r="D65" t="str">
+        <v>bdingredients.com</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Food and Beverage Manufacturing</v>
+      </c>
+      <c r="F65" t="str">
+        <v>1,001-5,000 employees</v>
+      </c>
+      <c r="G65" t="str">
+        <v>Sacramento, CA</v>
+      </c>
+      <c r="H65" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I65" t="str">
+        <v>1910</v>
+      </c>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Jamilah Merrick</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Lucid3</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Website not Found</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Website not Found</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Technology, Information and Internet</v>
+      </c>
+      <c r="F66" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G66" t="str">
+        <v>Silicon Valley, CA</v>
+      </c>
+      <c r="H66" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I66" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Serhiy Kharytonov</v>
+      </c>
+      <c r="B67" t="str">
+        <v>JetSoftPro</v>
+      </c>
+      <c r="C67" t="str">
+        <v>https://jetsoftpro.com/</v>
+      </c>
+      <c r="D67" t="str">
+        <v>jetsoftpro.com</v>
+      </c>
+      <c r="E67" t="str">
+        <v>IT Services and IT Consulting</v>
+      </c>
+      <c r="F67" t="str">
+        <v>201-500 employees</v>
+      </c>
+      <c r="G67" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I67" t="str">
+        <v>2014</v>
+      </c>
+      <c r="J67" t="str">
+        <v/>
+      </c>
+      <c r="K67" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Neissan Monadjem</v>
+      </c>
+      <c r="B68" t="str">
+        <v>LINKSPORTS INTERNATIONAL CORP.</v>
+      </c>
+      <c r="C68" t="str">
+        <v>http://www.linksports.com</v>
+      </c>
+      <c r="D68" t="str">
+        <v>linksports.com</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Spectator Sports</v>
+      </c>
+      <c r="F68" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G68" t="str">
+        <v>North York, Toronto, ON</v>
+      </c>
+      <c r="H68" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I68" t="str">
+        <v>2020</v>
+      </c>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Ksenia Manaeva</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Self Employed</v>
+      </c>
+      <c r="C69" t="str">
+        <v>http://www.bergmandesig.com</v>
+      </c>
+      <c r="D69" t="str">
+        <v>bergmandesig.com</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Graphic Design</v>
+      </c>
+      <c r="F69" t="str">
+        <v>1 employee</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Headquater location not found</v>
+      </c>
+      <c r="H69" t="str">
+        <v>Self-Employed</v>
+      </c>
+      <c r="I69" t="str">
+        <v>When Founded not found</v>
+      </c>
+      <c r="J69" t="str">
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Mark Stoner</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Apothēka Systems Inc.</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://www.apotheka.co/</v>
+      </c>
+      <c r="D70" t="str">
+        <v>apotheka.co</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="F70" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Beverly Hills, California</v>
+      </c>
+      <c r="H70" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I70" t="str">
+        <v>2019</v>
+      </c>
+      <c r="J70" t="str">
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Soren Azorian</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Redline Blockchain</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://redlineblockchain.com/</v>
+      </c>
+      <c r="D71" t="str">
+        <v>redlineblockchain.com</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="F71" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Burbank, California</v>
+      </c>
+      <c r="H71" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I71" t="str">
+        <v>2021</v>
+      </c>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+      <c r="K71" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Michael Zajas</v>
+      </c>
+      <c r="B72" t="str">
+        <v>CITIZEN CONSULTING PARTNERS</v>
+      </c>
+      <c r="C72" t="str">
+        <v>www.citizencp.com</v>
+      </c>
+      <c r="D72" t="str">
+        <v>citizencp.com</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F72" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Phoenix, Arizona</v>
+      </c>
+      <c r="H72" t="str">
+        <v>Partnership</v>
+      </c>
+      <c r="I72" t="str">
+        <v>2022</v>
+      </c>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Boris Kontsevoi</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Forbes Technology Council</v>
+      </c>
+      <c r="C73" t="str">
+        <v>http://forbestechcouncil.com</v>
+      </c>
+      <c r="D73" t="str">
+        <v>forbestechcouncil.com</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Civic and Social Organizations</v>
+      </c>
+      <c r="F73" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Boston, MA</v>
+      </c>
+      <c r="H73" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I73" t="str">
+        <v>2015</v>
+      </c>
+      <c r="J73" t="str">
+        <v>boriskontsevoi@forbestechcouncil.com, boris.kontsevoi@forbestechcouncil.com, boris@forbestechcouncil.com, b.kontsevoi@forbestechcouncil.com, bkontsevoi@forbestechcouncil.com, kontsevoiboris@forbestechcouncil.com, kontsevoi.boris@forbestechcouncil.com, kontsevoi@forbestechcouncil.com, k.boris@forbestechcouncil.com, kboris@forbestechcouncil.com, kb@forbestechcouncil.com, k.b@forbestechcouncil.com, bk@forbestechcouncil.com, b.k@forbestechcouncil.com</v>
+      </c>
+      <c r="K73" t="str">
+        <v>catchall</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Alison González</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Lil Horse powered by DrakeTech</v>
+      </c>
+      <c r="C74" t="str">
+        <v>https://www.lilhorselab.com/</v>
+      </c>
+      <c r="D74" t="str">
+        <v>lilhorselab.com</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Design</v>
+      </c>
+      <c r="F74" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Toronto, ON</v>
+      </c>
+      <c r="H74" t="str">
+        <v>Partnership</v>
+      </c>
+      <c r="I74" t="str">
+        <v>2020</v>
+      </c>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Jeanine "Nini" Martin</v>
+      </c>
+      <c r="B75" t="str">
+        <v>ZeaMed</v>
+      </c>
+      <c r="C75" t="str">
+        <v>https://www.zeamed.com</v>
+      </c>
+      <c r="D75" t="str">
+        <v>zeamed.com</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Hospitals and Health Care</v>
+      </c>
+      <c r="F75" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Atlanta, GA</v>
+      </c>
+      <c r="H75" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I75" t="str">
+        <v>2018</v>
+      </c>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>William Naranjo</v>
+      </c>
+      <c r="B76" t="str">
+        <v>MergersCorp M&amp;A International</v>
+      </c>
+      <c r="C76" t="str">
+        <v>http://MergersCorp.com</v>
+      </c>
+      <c r="D76" t="str">
+        <v>MergersCorp.com</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Investment Banking</v>
+      </c>
+      <c r="F76" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G76" t="str">
+        <v>New York</v>
+      </c>
+      <c r="H76" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I76" t="str">
+        <v>When Founded not found</v>
+      </c>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Daniel Barry</v>
+      </c>
+      <c r="B77" t="str">
+        <v>BCAIV - BlockChain &amp; AI Ventures</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Website not Found</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Website not Found</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Marketing Services</v>
+      </c>
+      <c r="F77" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Los Angeles, California</v>
+      </c>
+      <c r="H77" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I77" t="str">
+        <v>2017</v>
+      </c>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Timothy Tello</v>
+      </c>
+      <c r="B78" t="str">
+        <v>3thix</v>
+      </c>
+      <c r="C78" t="str">
+        <v>www.3thix.com</v>
+      </c>
+      <c r="D78" t="str">
+        <v>3thix.com</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Computer Games</v>
+      </c>
+      <c r="F78" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G78" t="str">
+        <v>Austin, Texas</v>
+      </c>
+      <c r="H78" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I78" t="str">
+        <v>2023</v>
+      </c>
+      <c r="J78" t="str">
+        <v>timothytello@3thix.com, timothy.tello@3thix.com, timothy@3thix.com, t.tello@3thix.com, ttello@3thix.com, tellotimothy@3thix.com, tello.timothy@3thix.com, tello@3thix.com, t.timothy@3thix.com, ttimothy@3thix.com, tt@3thix.com, t.t@3thix.com</v>
+      </c>
+      <c r="K78" t="str">
+        <v>catchall</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Kanth Miriyala</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Block21x Capital</v>
+      </c>
+      <c r="C79" t="str">
+        <v>https://block21x.capital/</v>
+      </c>
+      <c r="D79" t="str">
+        <v>block21x.capital</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F79" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G79" t="str">
+        <v>Irving, Texas</v>
+      </c>
+      <c r="H79" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I79" t="str">
+        <v>When Founded not found</v>
+      </c>
+      <c r="J79" t="str">
+        <v>kanthmiriyala@block21x.capital, kanth.miriyala@block21x.capital, kanth@block21x.capital, k.miriyala@block21x.capital, kmiriyala@block21x.capital, miriyalakanth@block21x.capital, miriyala.kanth@block21x.capital, miriyala@block21x.capital, m.kanth@block21x.capital, mkanth@block21x.capital, mk@block21x.capital, m.k@block21x.capital, km@block21x.capital, k.m@block21x.capital</v>
+      </c>
+      <c r="K79" t="str">
+        <v>catchall</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Rohail Khan</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Westchester Group Investment Management, Inc.</v>
+      </c>
+      <c r="C80" t="str">
+        <v>http://www.wgimglobal.com</v>
+      </c>
+      <c r="D80" t="str">
+        <v>wgimglobal.com</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Investment Management</v>
+      </c>
+      <c r="F80" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G80" t="str">
+        <v>Champaign, IL</v>
+      </c>
+      <c r="H80" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I80" t="str">
+        <v>1986</v>
+      </c>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Jeremy Joo</v>
+      </c>
+      <c r="B81" t="str">
+        <v>CryptoPool</v>
+      </c>
+      <c r="C81" t="str">
+        <v>www.cryptopool.money</v>
+      </c>
+      <c r="D81" t="str">
+        <v>cryptopool.money</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Blockchain Services</v>
+      </c>
+      <c r="F81" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G81" t="str">
+        <v>California, San Francisco</v>
+      </c>
+      <c r="H81" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I81" t="str">
+        <v>2022</v>
+      </c>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Joel Garcia</v>
+      </c>
+      <c r="B82" t="str">
+        <v>AllCode</v>
+      </c>
+      <c r="C82" t="str">
+        <v>https://www.allcode.com</v>
+      </c>
+      <c r="D82" t="str">
+        <v>allcode.com</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Technology, Information and Internet</v>
+      </c>
+      <c r="F82" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G82" t="str">
+        <v>San Francisco, California</v>
+      </c>
+      <c r="H82" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I82" t="str">
+        <v>2015</v>
+      </c>
+      <c r="J82" t="str">
+        <v>joel@allcode.com, jgarcia@allcode.com</v>
+      </c>
+      <c r="K82" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Florian Krueger</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Minfo</v>
+      </c>
+      <c r="C83" t="str">
+        <v>http://www.minfo.co/</v>
+      </c>
+      <c r="D83" t="str">
+        <v>minfo.co</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Advertising Services</v>
+      </c>
+      <c r="F83" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G83" t="str">
+        <v>New York, New York</v>
+      </c>
+      <c r="H83" t="str">
+        <v>Self-Owned</v>
+      </c>
+      <c r="I83" t="str">
+        <v>2012</v>
+      </c>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+      <c r="K83" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Kirk Borne</v>
+      </c>
+      <c r="B84" t="str">
+        <v>DataPrime</v>
+      </c>
+      <c r="C84" t="str">
+        <v>https://prime.ai</v>
+      </c>
+      <c r="D84" t="str">
+        <v>prime.ai</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Data Infrastructure and Analytics</v>
+      </c>
+      <c r="F84" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G84" t="str">
+        <v>Loudon, VA</v>
+      </c>
+      <c r="H84" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I84" t="str">
+        <v>2018</v>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Sam  Swapna Sinha</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Strategism, Inc</v>
+      </c>
+      <c r="C85" t="str">
+        <v>http://www.strategisminc.com</v>
+      </c>
+      <c r="D85" t="str">
+        <v>strategisminc.com</v>
+      </c>
+      <c r="E85" t="str">
+        <v>IT Services and IT Consulting</v>
+      </c>
+      <c r="F85" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G85" t="str">
+        <v>Fremont, CA</v>
+      </c>
+      <c r="H85" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I85" t="str">
+        <v>2008</v>
+      </c>
+      <c r="J85" t="str">
+        <v>sam@strategisminc.com</v>
+      </c>
+      <c r="K85" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Jonathan Ewert</v>
+      </c>
+      <c r="B86" t="str">
+        <v>CapZone Analytics</v>
+      </c>
+      <c r="C86" t="str">
+        <v>capzoneanalytics.com</v>
+      </c>
+      <c r="D86" t="str">
+        <v>capzoneanalytics.com</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F86" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G86" t="str">
+        <v>Dallas, Texas</v>
+      </c>
+      <c r="H86" t="str">
+        <v>Partnership</v>
+      </c>
+      <c r="I86" t="str">
+        <v>2021</v>
+      </c>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Hugo Cantave Jean</v>
+      </c>
+      <c r="B87" t="str">
+        <v>GSHI</v>
+      </c>
+      <c r="C87" t="str">
+        <v>http://www.zinastore.com</v>
+      </c>
+      <c r="D87" t="str">
+        <v>zinastore.com</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Information Technology &amp; Services</v>
+      </c>
+      <c r="F87" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Pierrefonds, Quebec</v>
+      </c>
+      <c r="H87" t="str">
+        <v>Partnership</v>
+      </c>
+      <c r="I87" t="str">
+        <v>2006</v>
+      </c>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>David Starck</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Infuse</v>
+      </c>
+      <c r="C88" t="str">
+        <v>http://www.infuse.it</v>
+      </c>
+      <c r="D88" t="str">
+        <v>infuse.it</v>
+      </c>
+      <c r="E88" t="str">
+        <v>IT Services and IT Consulting</v>
+      </c>
+      <c r="F88" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G88" t="str">
+        <v>London, London</v>
+      </c>
+      <c r="H88" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I88" t="str">
+        <v>2002</v>
+      </c>
+      <c r="J88" t="str">
+        <v>davidstarck@infuse.it, david.starck@infuse.it, david@infuse.it, d.starck@infuse.it, dstarck@infuse.it, starckdavid@infuse.it, starck.david@infuse.it, starck@infuse.it, s.david@infuse.it, sdavid@infuse.it, sd@infuse.it, s.d@infuse.it, ds@infuse.it, d.s@infuse.it</v>
+      </c>
+      <c r="K88" t="str">
+        <v>catchall</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Michael Rubinelli</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Worldwide Asset eXchange (WAX)</v>
+      </c>
+      <c r="C89" t="str">
+        <v>https://wax.io</v>
+      </c>
+      <c r="D89" t="str">
+        <v>wax.io</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Computer Games</v>
+      </c>
+      <c r="F89" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Grand Cayman</v>
+      </c>
+      <c r="H89" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I89" t="str">
+        <v>2015</v>
+      </c>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+      <c r="K89" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Jay Schweid</v>
+      </c>
+      <c r="B90" t="str">
+        <v>ephelants</v>
+      </c>
+      <c r="C90" t="str">
+        <v>http://ephelants.com</v>
+      </c>
+      <c r="D90" t="str">
+        <v>ephelants.com</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Entertainment Providers</v>
+      </c>
+      <c r="F90" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G90" t="str">
+        <v>New York, NY</v>
+      </c>
+      <c r="H90" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I90" t="str">
+        <v>2006</v>
+      </c>
+      <c r="J90" t="str">
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Ali Hussein Kassim</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Kinesis Money</v>
+      </c>
+      <c r="C91" t="str">
+        <v>https://kinesis.money/</v>
+      </c>
+      <c r="D91" t="str">
+        <v>kinesis.money</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Financial Services</v>
+      </c>
+      <c r="F91" t="str">
+        <v>51-200 employees</v>
+      </c>
+      <c r="G91" t="str">
+        <v>Cayman Islands</v>
+      </c>
+      <c r="H91" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I91" t="str">
+        <v>2018</v>
+      </c>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Fredrik Grothe Eberhardt</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Stealth Startup</v>
+      </c>
+      <c r="C92" t="str">
+        <v>https://en.wikipedia.org/wiki/Stealth_startup</v>
+      </c>
+      <c r="D92" t="str">
+        <v>en.wikipedia.org</v>
+      </c>
+      <c r="E92" t="str">
+        <v>Technology, Information and Internet</v>
+      </c>
+      <c r="F92" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G92" t="str">
+        <v>Mountain View, WY</v>
+      </c>
+      <c r="H92" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I92" t="str">
+        <v>When Founded not found</v>
+      </c>
+      <c r="J92" t="str">
+        <v/>
+      </c>
+      <c r="K92" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Brijesh Kamani</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Rapidise.io</v>
+      </c>
+      <c r="C93" t="str">
+        <v>https://rapidise.io</v>
+      </c>
+      <c r="D93" t="str">
+        <v>rapidise.io</v>
+      </c>
+      <c r="E93" t="str">
+        <v>Software Development</v>
+      </c>
+      <c r="F93" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G93" t="str">
+        <v>Milpitas, California</v>
+      </c>
+      <c r="H93" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I93" t="str">
+        <v>2021</v>
+      </c>
+      <c r="J93" t="str">
+        <v>brijesh@rapidise.io</v>
+      </c>
+      <c r="K93" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Jon Trask</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Blockchain Guru</v>
+      </c>
+      <c r="C94" t="str">
+        <v>https://www.blockchainguru.ca</v>
+      </c>
+      <c r="D94" t="str">
+        <v>blockchainguru.ca</v>
+      </c>
+      <c r="E94" t="str">
+        <v>IT Services and IT Consulting</v>
+      </c>
+      <c r="F94" t="str">
+        <v>11-50 employees</v>
+      </c>
+      <c r="G94" t="str">
+        <v>Calgary, Alberta</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I94" t="str">
+        <v>2017</v>
+      </c>
+      <c r="J94" t="str">
+        <v>jon.trask@blockchainguru.ca, jon@blockchainguru.ca</v>
+      </c>
+      <c r="K94" t="str">
+        <v>valid</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Ramin Redjai</v>
+      </c>
+      <c r="B95" t="str">
+        <v>MAMRAMIM Loan &amp; Note Marketplace</v>
+      </c>
+      <c r="C95" t="str">
+        <v>www.MAMRAMIM.com</v>
+      </c>
+      <c r="D95" t="str">
+        <v>MAMRAMIM.com</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Internet Marketplace Platforms</v>
+      </c>
+      <c r="F95" t="str">
+        <v>2-10 employees</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Irvine, California</v>
+      </c>
+      <c r="H95" t="str">
+        <v>Privately Held</v>
+      </c>
+      <c r="I95" t="str">
+        <v>2022</v>
+      </c>
+      <c r="J95" t="str">
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <v>no emails found</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K95"/>
   </ignoredErrors>
 </worksheet>
 </file>